--- a/backdata/가격 문구.xlsx
+++ b/backdata/가격 문구.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgook\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79992E0B-862F-49F0-BD49-422D57B1E4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18975" windowHeight="11145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t xml:space="preserve">품목 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -39,6 +38,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>스텐드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">벽걸이 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1웨이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4웨이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실외기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주방상판품목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2in1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">주방상판크랙 일자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -59,6 +86,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>에어컨케어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>주방 상판 ㅡ'실리콘교체</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -83,6 +114,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>에어컨 : 전문가의 세심한 분해케어로 쾌적하고 깨끗한 공기를 만들어 드립니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 호흡기를 해치게됩니다. 없애드리겠습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>크랙보수 :</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -99,6 +138,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>더보기 : 에어컨 가동과 동시에 찬바람을 일으켜 생긴 물기, 가동하는 내내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰팡이와 세균,먼지 등 유해한 물질들이 바람을 타고 실내를 맴돌며</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">싱크대 상판 UV코팅: </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -107,6 +154,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">   더보기 :</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>우리 건강과 직결되는 주방의 청결을 위해 싱크대를 UV코팅으로 덮어</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -128,83 +179,17 @@
   </si>
   <si>
     <t>스며드는 매트. 건강을 위해 선택하세요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주방 시공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오염으로 인한 얼룩진 실리콘은 깨끗하게 교체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">실리콘 교체: </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물떼와 곰팡이로 인한 오염 부분을 제거하여</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>깨끄하고 청결한 이미지 바꾸어 드립니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주방 시공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">에어컨 설치 및 수리  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">실외기 수리 및 교체, </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      냉각 가스 충전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이전 설치 및 수리</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관련 업체 =&gt; 나라공조, 모두이엔지, 숨고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">관련 업체 =&gt; </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,38 +235,16 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="1"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -300,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -330,25 +293,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -358,72 +306,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -431,62 +315,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -504,16 +332,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -523,16 +357,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -541,65 +387,11 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -623,26 +415,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>62865</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>40005</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>269314</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>116790</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>124534</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>86310</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -661,8 +447,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="62865" y="3537585"/>
-          <a:ext cx="5060389" cy="4343985"/>
+          <a:off x="1276350" y="5153025"/>
+          <a:ext cx="5077534" cy="4191585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -936,285 +722,471 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="5"/>
-    <col min="6" max="6" width="21.296875" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="5" max="5" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="27" t="s">
+      <c r="G1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>140000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>130000</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>90000</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>140000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>110000</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>160000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>140000</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="4">
+        <v>360</v>
+      </c>
+      <c r="C6" s="3">
+        <v>180000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>160000</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>70000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>60000</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>220000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>200000</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
         <v>250000</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D10" s="3">
         <v>230000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="28"/>
-      <c r="B4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="G10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
         <v>320000</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D11" s="3">
         <v>260000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="28"/>
-      <c r="B5" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="20">
+      <c r="G11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
         <v>380000</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D12" s="3">
         <v>330000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="28"/>
-      <c r="B6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="G12" s="19"/>
+      <c r="H12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
         <v>120000</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D13" s="3">
         <v>110000</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>70000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>60000</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3">
+        <v>70000</v>
+      </c>
+      <c r="D15" s="3">
+        <v>60000</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3">
+        <v>80000</v>
+      </c>
+      <c r="D16" s="3">
+        <v>70000</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
+      <c r="C17" s="3">
+        <v>90000</v>
+      </c>
+      <c r="D17" s="3">
+        <v>80000</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="28"/>
-      <c r="B7" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>70000</v>
-      </c>
-      <c r="D7" s="18">
-        <v>60000</v>
-      </c>
-      <c r="F7" s="31"/>
-      <c r="H7" t="s">
+      <c r="B19" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="28"/>
-      <c r="B8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="20">
-        <v>70000</v>
-      </c>
-      <c r="D8" s="21">
-        <v>60000</v>
-      </c>
-      <c r="F8" s="31"/>
-      <c r="H8" t="s">
+      <c r="C19" s="16">
+        <v>89000</v>
+      </c>
+      <c r="D19" s="16">
+        <v>75000</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="29"/>
-      <c r="B9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="13">
-        <v>80000</v>
-      </c>
-      <c r="D9" s="22">
-        <v>70000</v>
-      </c>
-      <c r="F9" s="31"/>
-    </row>
-    <row r="10" spans="1:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="30"/>
-      <c r="B10" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="20">
-        <v>90000</v>
-      </c>
-      <c r="D10" s="21">
-        <v>80000</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C11" s="1"/>
-      <c r="F11" s="31"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="10">
-        <v>89000</v>
-      </c>
-      <c r="D12" s="10">
-        <v>75000</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="C20" s="17">
         <v>99000</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D20" s="16">
         <v>79000</v>
       </c>
-      <c r="F13" s="31"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="F14" s="31"/>
-      <c r="G14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="F15" s="31"/>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="F16" s="31"/>
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.4">
-      <c r="G17" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.4">
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.4">
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.4">
-      <c r="F20" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.4">
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.4">
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.4">
-      <c r="G23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.4">
-      <c r="F25" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="6:9" x14ac:dyDescent="0.4">
-      <c r="G26" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="6:9" x14ac:dyDescent="0.4">
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="6:9" x14ac:dyDescent="0.4">
-      <c r="G28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="F6:F16"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A10:A17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
